--- a/coxaxle/src/test/resources/datasheets/AT_18_NotificationDetails.xlsx
+++ b/coxaxle/src/test/resources/datasheets/AT_18_NotificationDetails.xlsx
@@ -60,10 +60,10 @@
     <t>Image</t>
   </si>
   <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>C:/Users/Public/Pictures/Sample Pictures/1234.jpg</t>
+    <t>C:/Users/Public/Pictures/Sample Pictures/Notifications.png</t>
+  </si>
+  <si>
+    <t>Test123</t>
   </si>
 </sst>
 </file>
@@ -441,7 +441,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -506,16 +506,16 @@
         <v>42673</v>
       </c>
       <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" t="s">
         <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/coxaxle/src/test/resources/datasheets/AT_18_NotificationDetails.xlsx
+++ b/coxaxle/src/test/resources/datasheets/AT_18_NotificationDetails.xlsx
@@ -441,7 +441,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
